--- a/target/classes/testData/LoginDetails.xlsx
+++ b/target/classes/testData/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingis/eclipse-workspace/CalendarAppCopy/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20DB73F-8B07-8049-A448-477AFCE4BB5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA08327-2C2D-014B-B9F6-DF12ADD09E00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{8FEFF26B-84DC-3F4E-92B7-5144F87B859F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -88,9 +88,6 @@
     <t>akhilbingi64@gmail.com</t>
   </si>
   <si>
-    <t>akhilbingi321</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
@@ -103,25 +100,37 @@
     <t>akabc</t>
   </si>
   <si>
-    <t>akhilbingi64234</t>
-  </si>
-  <si>
-    <t>akhilbingi3244</t>
-  </si>
-  <si>
-    <t>akhilbingi3215</t>
-  </si>
-  <si>
-    <t>akhilbingi32127</t>
-  </si>
-  <si>
-    <t>nffmf</t>
-  </si>
-  <si>
-    <t>akhilhdiw5</t>
-  </si>
-  <si>
-    <t>akhilhdingi9</t>
+    <t>akhilbingi32131</t>
+  </si>
+  <si>
+    <t>akhilbingi64234442</t>
+  </si>
+  <si>
+    <t>akhilbingi3244553</t>
+  </si>
+  <si>
+    <t>akhilbingi3215664</t>
+  </si>
+  <si>
+    <t>akhilbingi32127775</t>
+  </si>
+  <si>
+    <t>nffmf886</t>
+  </si>
+  <si>
+    <t>akhilhdiw5997</t>
+  </si>
+  <si>
+    <t>akhilhdingi9008</t>
+  </si>
+  <si>
+    <t>ak@gmail.com</t>
+  </si>
+  <si>
+    <t>bingi18</t>
+  </si>
+  <si>
+    <t>RoyalEnfield</t>
   </si>
 </sst>
 </file>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF42965B-7184-1B4C-B5EF-9BB1D84BE67B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -656,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -673,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -690,24 +699,24 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -716,12 +725,30 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="akhilbingi6423@gmail.com" xr:uid="{FF364A20-4455-7048-9DF5-DE60DB4F651A}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{78D812E6-FA85-2145-A7A1-D877B7D3C668}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/testData/LoginDetails.xlsx
+++ b/target/classes/testData/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingis/eclipse-workspace/CalendarAppCopy/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA08327-2C2D-014B-B9F6-DF12ADD09E00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D4C04-0AD2-584D-920D-3DF53DE20D5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{8FEFF26B-84DC-3F4E-92B7-5144F87B859F}"/>
   </bookViews>

--- a/target/classes/testData/LoginDetails.xlsx
+++ b/target/classes/testData/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingis/eclipse-workspace/CalendarAppCopy/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D4C04-0AD2-584D-920D-3DF53DE20D5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E65B60-1563-4A41-AA37-AC903E793399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{8FEFF26B-84DC-3F4E-92B7-5144F87B859F}"/>
   </bookViews>
@@ -100,37 +100,37 @@
     <t>akabc</t>
   </si>
   <si>
-    <t>akhilbingi32131</t>
-  </si>
-  <si>
-    <t>akhilbingi64234442</t>
-  </si>
-  <si>
-    <t>akhilbingi3244553</t>
-  </si>
-  <si>
-    <t>akhilbingi3215664</t>
-  </si>
-  <si>
-    <t>akhilbingi32127775</t>
-  </si>
-  <si>
-    <t>nffmf886</t>
-  </si>
-  <si>
-    <t>akhilhdiw5997</t>
-  </si>
-  <si>
-    <t>akhilhdingi9008</t>
-  </si>
-  <si>
     <t>ak@gmail.com</t>
   </si>
   <si>
     <t>bingi18</t>
   </si>
   <si>
-    <t>RoyalEnfield</t>
+    <t>akhilbingi321312</t>
+  </si>
+  <si>
+    <t>akhilbingi642344423</t>
+  </si>
+  <si>
+    <t>akhilbingi32445534</t>
+  </si>
+  <si>
+    <t>akhilbingi32156645</t>
+  </si>
+  <si>
+    <t>akhilbingi321277756</t>
+  </si>
+  <si>
+    <t>nffmf8867</t>
+  </si>
+  <si>
+    <t>akhilhdiw59978</t>
+  </si>
+  <si>
+    <t>akhilhdingi90089</t>
+  </si>
+  <si>
+    <t>RoyalEnfield1</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -668,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>

--- a/target/classes/testData/LoginDetails.xlsx
+++ b/target/classes/testData/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingis/eclipse-workspace/CalendarAppCopy/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4CC86E-3939-2A49-BFF5-A0CE673A126E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7005E78C-F3E9-CA49-8A29-1D4D5995934B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{8FEFF26B-84DC-3F4E-92B7-5144F87B859F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>akhilbingi3212777565</t>
+  </si>
+  <si>
+    <t>RoyalEnfield3</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF42965B-7184-1B4C-B5EF-9BB1D84BE67B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,10 +748,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="akhilbingi6423@gmail.com" xr:uid="{FF364A20-4455-7048-9DF5-DE60DB4F651A}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{78D812E6-FA85-2145-A7A1-D877B7D3C668}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{56CA2EDE-8DD0-2B40-82FC-C7EF6E0AF7F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/testData/LoginDetails.xlsx
+++ b/target/classes/testData/LoginDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingis/eclipse-workspace/CalendarAppCopy/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7005E78C-F3E9-CA49-8A29-1D4D5995934B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E07A9-AE66-0F49-A691-351CA0A1412B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{8FEFF26B-84DC-3F4E-92B7-5144F87B859F}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <t>akhilbingi3212777565</t>
   </si>
   <si>
-    <t>RoyalEnfield3</t>
+    <t>RoyalEnfield31</t>
   </si>
 </sst>
 </file>
